--- a/data/air_info/洛杉矶-东京.xlsx
+++ b/data/air_info/洛杉矶-东京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8123F-57B1-4E0F-8513-AE0C382142CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A01D50-A749-4638-8C1C-7D5B1B2BBC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,27 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
-    <t>行程时间：12 小时 20 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：11 小时 40 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：11 小时 30 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：11 小时 45 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：11 小时 35 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：11 小时 55 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：12 小时 10 分钟</t>
-  </si>
-  <si>
     <t>14:00+1</t>
   </si>
   <si>
@@ -114,8 +93,28 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>12 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>11 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>11 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>11 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>11 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>11 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>12 小时 10 分钟</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,7 +470,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -482,29 +481,28 @@
     <col min="4" max="4" width="22.26953125" customWidth="1"/>
     <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="24.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -513,23 +511,22 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(3000,4500)</f>
-        <v>3593</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,23 +534,22 @@
         <v>0.4375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" ca="1" si="0">RANDBETWEEN(3000,4500)</f>
-        <v>4111</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,23 +557,22 @@
         <v>0.46527777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4039</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,23 +580,22 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3872</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,23 +603,22 @@
         <v>0.53125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3942</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,23 +626,22 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3385</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,23 +649,22 @@
         <v>0.5625</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3701</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,23 +672,22 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3190</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,23 +695,22 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3249</v>
+        <v>3455</v>
       </c>
     </row>
   </sheetData>
